--- a/data/pca/factorExposure/factorExposure_2018-07-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02329485042743206</v>
+        <v>0.02112240317071407</v>
       </c>
       <c r="C2">
-        <v>-0.02108844334889984</v>
+        <v>-0.01904711288994379</v>
       </c>
       <c r="D2">
-        <v>-0.02842525487308873</v>
+        <v>-0.02048259268127337</v>
       </c>
       <c r="E2">
-        <v>0.006834086680899393</v>
+        <v>-0.01572364038655828</v>
       </c>
       <c r="F2">
-        <v>0.1088703595425238</v>
+        <v>0.003522661579059182</v>
       </c>
       <c r="G2">
-        <v>-0.05410347431452526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05173646779793545</v>
+      </c>
+      <c r="H2">
+        <v>0.04873462722846481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1070929495668254</v>
+        <v>0.08018962377391096</v>
       </c>
       <c r="C3">
-        <v>0.04246293848928585</v>
+        <v>0.01179387463176698</v>
       </c>
       <c r="D3">
-        <v>-0.07789751398459203</v>
+        <v>-0.02467589898682978</v>
       </c>
       <c r="E3">
-        <v>0.01868896067369086</v>
+        <v>-0.01291307079195086</v>
       </c>
       <c r="F3">
-        <v>0.3847582863666017</v>
+        <v>-0.04601712426335263</v>
       </c>
       <c r="G3">
-        <v>-0.1839227863282567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1758797738632644</v>
+      </c>
+      <c r="H3">
+        <v>0.1554758916081753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04584231995055904</v>
+        <v>0.0434007650527972</v>
       </c>
       <c r="C4">
-        <v>-0.02334608858319366</v>
+        <v>-0.005367253737919777</v>
       </c>
       <c r="D4">
-        <v>0.01386180229082719</v>
+        <v>-0.04870322677470487</v>
       </c>
       <c r="E4">
-        <v>-0.05004018239782509</v>
+        <v>0.0235022953206267</v>
       </c>
       <c r="F4">
-        <v>0.08078977706305918</v>
+        <v>0.0483979890213874</v>
       </c>
       <c r="G4">
-        <v>-0.06251737528227934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.043465577877793</v>
+      </c>
+      <c r="H4">
+        <v>0.0560734104690183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01952139141486445</v>
+        <v>0.02499936316526836</v>
       </c>
       <c r="C6">
-        <v>-0.01202002832903867</v>
+        <v>-0.004503292799524479</v>
       </c>
       <c r="D6">
-        <v>-0.01291778089077322</v>
+        <v>-0.05208952775401521</v>
       </c>
       <c r="E6">
-        <v>-0.01949052078985571</v>
+        <v>0.008299339431954626</v>
       </c>
       <c r="F6">
-        <v>0.02463089989447107</v>
+        <v>0.02991726262015135</v>
       </c>
       <c r="G6">
-        <v>0.005477405925009847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01524762778356337</v>
+      </c>
+      <c r="H6">
+        <v>0.06209309277184755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02157079050756304</v>
+        <v>0.02101162097401048</v>
       </c>
       <c r="C7">
-        <v>-0.0006668085322484095</v>
+        <v>-0.003479532162624328</v>
       </c>
       <c r="D7">
-        <v>-0.01525075836754429</v>
+        <v>-0.02543315880043455</v>
       </c>
       <c r="E7">
-        <v>-0.0273566689396893</v>
+        <v>0.041913420330044</v>
       </c>
       <c r="F7">
-        <v>0.05565359195024248</v>
+        <v>0.0004497614481409301</v>
       </c>
       <c r="G7">
-        <v>-0.06887965410060701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02301864824130249</v>
+      </c>
+      <c r="H7">
+        <v>0.03738321260733084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01957146631185857</v>
+        <v>0.005461317732009372</v>
       </c>
       <c r="C8">
-        <v>-0.01373470435245377</v>
+        <v>0.001385317050580466</v>
       </c>
       <c r="D8">
-        <v>-0.006722723999435095</v>
+        <v>-0.01258149856743345</v>
       </c>
       <c r="E8">
-        <v>-0.04164391640715491</v>
+        <v>0.007429839003728351</v>
       </c>
       <c r="F8">
-        <v>0.09890030474960654</v>
+        <v>0.01569215265002108</v>
       </c>
       <c r="G8">
-        <v>-0.05901820934851312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04565099497833008</v>
+      </c>
+      <c r="H8">
+        <v>0.04331973212517513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03647119035858613</v>
+        <v>0.03488822420001139</v>
       </c>
       <c r="C9">
-        <v>-0.02002532954437459</v>
+        <v>-0.001309604855898107</v>
       </c>
       <c r="D9">
-        <v>0.004603300952307609</v>
+        <v>-0.03546097475948818</v>
       </c>
       <c r="E9">
-        <v>-0.04289964586669619</v>
+        <v>0.01222753423811442</v>
       </c>
       <c r="F9">
-        <v>0.08362978272425657</v>
+        <v>0.02345635150892117</v>
       </c>
       <c r="G9">
-        <v>-0.06119771868637973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04980926456222554</v>
+      </c>
+      <c r="H9">
+        <v>0.05258110992696088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02866155846968808</v>
+        <v>0.104153552503421</v>
       </c>
       <c r="C10">
-        <v>0.04160877414671368</v>
+        <v>0.03019016398095778</v>
       </c>
       <c r="D10">
-        <v>0.08357657326170696</v>
+        <v>0.1520485043076431</v>
       </c>
       <c r="E10">
-        <v>0.1072939441993023</v>
+        <v>-0.009739261352977572</v>
       </c>
       <c r="F10">
-        <v>0.04384642370611341</v>
+        <v>-0.04339429254731619</v>
       </c>
       <c r="G10">
-        <v>0.01857118026387857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02259097391704744</v>
+      </c>
+      <c r="H10">
+        <v>0.006405351192968074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03577906972169017</v>
+        <v>0.02012014550872962</v>
       </c>
       <c r="C11">
-        <v>-0.01491473117079618</v>
+        <v>0.00769374087616965</v>
       </c>
       <c r="D11">
-        <v>-0.01725307837990151</v>
+        <v>-0.03967139976381501</v>
       </c>
       <c r="E11">
-        <v>-0.03017404789480678</v>
+        <v>-0.0008556514206231886</v>
       </c>
       <c r="F11">
-        <v>0.04422269661317238</v>
+        <v>0.009191907829980325</v>
       </c>
       <c r="G11">
-        <v>-0.02935328725076525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02643030032442097</v>
+      </c>
+      <c r="H11">
+        <v>0.04384931146573001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04363940918346849</v>
+        <v>0.02924000416058493</v>
       </c>
       <c r="C12">
-        <v>-0.01618752121158857</v>
+        <v>0.006185140950567763</v>
       </c>
       <c r="D12">
-        <v>-0.01058268575267251</v>
+        <v>-0.04070239426848726</v>
       </c>
       <c r="E12">
-        <v>-0.03901105445229074</v>
+        <v>0.009242637415640161</v>
       </c>
       <c r="F12">
-        <v>0.03276513571344604</v>
+        <v>0.01606669822629656</v>
       </c>
       <c r="G12">
-        <v>-0.01901017633447971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01088433297034488</v>
+      </c>
+      <c r="H12">
+        <v>0.02386622352243073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01580426878620791</v>
+        <v>0.02509174615878301</v>
       </c>
       <c r="C13">
-        <v>-0.0198483142415964</v>
+        <v>-0.01474699753566976</v>
       </c>
       <c r="D13">
-        <v>-0.01359324731990542</v>
+        <v>0.00173785257305307</v>
       </c>
       <c r="E13">
-        <v>0.004181313705624443</v>
+        <v>-0.01252745086454552</v>
       </c>
       <c r="F13">
-        <v>0.07612992852847633</v>
+        <v>0.007755634988187996</v>
       </c>
       <c r="G13">
-        <v>-0.04547081327951281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05634730878463567</v>
+      </c>
+      <c r="H13">
+        <v>0.05694194210183596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01433806316601414</v>
+        <v>0.01668182464129001</v>
       </c>
       <c r="C14">
-        <v>-0.009157198759095361</v>
+        <v>-0.0008436300143411697</v>
       </c>
       <c r="D14">
-        <v>0.004264652245613923</v>
+        <v>-0.005238972801622279</v>
       </c>
       <c r="E14">
-        <v>-0.03857487030327746</v>
+        <v>0.0137212570727387</v>
       </c>
       <c r="F14">
-        <v>0.05055343023384996</v>
+        <v>0.01198956567531992</v>
       </c>
       <c r="G14">
-        <v>-0.06931179724523323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04315862453340991</v>
+      </c>
+      <c r="H14">
+        <v>0.003051827659446809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02744320775433339</v>
+        <v>0.02158538391328747</v>
       </c>
       <c r="C16">
-        <v>-0.0185828273485637</v>
+        <v>0.008312250753723577</v>
       </c>
       <c r="D16">
-        <v>-0.0172399168310274</v>
+        <v>-0.03532110141955185</v>
       </c>
       <c r="E16">
-        <v>-0.02299184921260876</v>
+        <v>0.003002277266355024</v>
       </c>
       <c r="F16">
-        <v>0.05107603543962334</v>
+        <v>0.01528125442358489</v>
       </c>
       <c r="G16">
-        <v>-0.03170500932099453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02365771331248695</v>
+      </c>
+      <c r="H16">
+        <v>0.03736318045431895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04854666232097071</v>
+        <v>0.0343127530159577</v>
       </c>
       <c r="C19">
-        <v>-0.0179562356433324</v>
+        <v>-0.0004489070879715794</v>
       </c>
       <c r="D19">
-        <v>-0.01503031578637853</v>
+        <v>-0.02289569445278101</v>
       </c>
       <c r="E19">
-        <v>-0.03666101004013647</v>
+        <v>0.005986057342204289</v>
       </c>
       <c r="F19">
-        <v>0.1011652534657077</v>
+        <v>0.01753037212010018</v>
       </c>
       <c r="G19">
-        <v>-0.03548573905112684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05797570785792366</v>
+      </c>
+      <c r="H19">
+        <v>0.07280564708735834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0003705957353172978</v>
+        <v>0.008962400403892744</v>
       </c>
       <c r="C20">
-        <v>-0.01179911559091042</v>
+        <v>-0.006882742502305686</v>
       </c>
       <c r="D20">
-        <v>0.00215603160504989</v>
+        <v>-0.008359550784088029</v>
       </c>
       <c r="E20">
-        <v>-0.03003550990350567</v>
+        <v>0.004066753900476587</v>
       </c>
       <c r="F20">
-        <v>0.07095253287667466</v>
+        <v>0.01032331727728891</v>
       </c>
       <c r="G20">
-        <v>-0.07541396312062135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04928226400468895</v>
+      </c>
+      <c r="H20">
+        <v>0.01340473635370873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005219968119461043</v>
+        <v>0.0142102858449698</v>
       </c>
       <c r="C21">
-        <v>0.01610493381162126</v>
+        <v>-0.008655141287064875</v>
       </c>
       <c r="D21">
-        <v>-0.01507214299106214</v>
+        <v>-0.008828751880488633</v>
       </c>
       <c r="E21">
-        <v>-0.0267618944035317</v>
+        <v>0.01601507387259827</v>
       </c>
       <c r="F21">
-        <v>0.05050398195052684</v>
+        <v>-0.0008696404729161783</v>
       </c>
       <c r="G21">
-        <v>-0.02025706598400489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04944439351774828</v>
+      </c>
+      <c r="H21">
+        <v>0.03385156033613153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03146513709669014</v>
+        <v>0.01917652659781739</v>
       </c>
       <c r="C24">
-        <v>-0.02012545948533487</v>
+        <v>0.00258601118781302</v>
       </c>
       <c r="D24">
-        <v>-0.008787971562382388</v>
+        <v>-0.03501057454017065</v>
       </c>
       <c r="E24">
-        <v>-0.008435847198111664</v>
+        <v>0.0003462847048483092</v>
       </c>
       <c r="F24">
-        <v>0.04294394740964601</v>
+        <v>0.009533153818757863</v>
       </c>
       <c r="G24">
-        <v>-0.02686694807977122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02021908174128524</v>
+      </c>
+      <c r="H24">
+        <v>0.04115480154429898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03123338292700759</v>
+        <v>0.02885519025015891</v>
       </c>
       <c r="C25">
-        <v>-0.01204478409617475</v>
+        <v>0.0005582652215122643</v>
       </c>
       <c r="D25">
-        <v>-0.01732645879016366</v>
+        <v>-0.03496245763610054</v>
       </c>
       <c r="E25">
-        <v>-0.0355690798081278</v>
+        <v>0.004335049828190632</v>
       </c>
       <c r="F25">
-        <v>0.04489961912215307</v>
+        <v>0.01585082310006227</v>
       </c>
       <c r="G25">
-        <v>-0.01072847549947337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02432010092023284</v>
+      </c>
+      <c r="H25">
+        <v>0.04361303899332916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02131688316259496</v>
+        <v>0.02022113022249401</v>
       </c>
       <c r="C26">
-        <v>-0.004185571318105067</v>
+        <v>-0.01726099629277117</v>
       </c>
       <c r="D26">
-        <v>-0.0303340190527367</v>
+        <v>-0.003178974806487354</v>
       </c>
       <c r="E26">
-        <v>-0.01588164504111359</v>
+        <v>-0.001375217934937056</v>
       </c>
       <c r="F26">
-        <v>0.06286295876054254</v>
+        <v>-0.000484627901084417</v>
       </c>
       <c r="G26">
-        <v>-0.03882595559307106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03246473649139399</v>
+      </c>
+      <c r="H26">
+        <v>0.02097781860278549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0623884181083678</v>
+        <v>0.02441421865038883</v>
       </c>
       <c r="C27">
-        <v>-0.02947985129954709</v>
+        <v>0.009276579394989565</v>
       </c>
       <c r="D27">
-        <v>0.02625464250270923</v>
+        <v>-0.01559997631236263</v>
       </c>
       <c r="E27">
-        <v>-0.03614520559152639</v>
+        <v>0.007836890324598174</v>
       </c>
       <c r="F27">
-        <v>0.05375949905387074</v>
+        <v>0.01638189278300529</v>
       </c>
       <c r="G27">
-        <v>-0.04629343926123875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01911967640694529</v>
+      </c>
+      <c r="H27">
+        <v>0.005166630036840008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04516049506753847</v>
+        <v>0.1545858351259354</v>
       </c>
       <c r="C28">
-        <v>0.04437308405329591</v>
+        <v>0.03144495663399823</v>
       </c>
       <c r="D28">
-        <v>0.116489184370003</v>
+        <v>0.2202410596469412</v>
       </c>
       <c r="E28">
-        <v>0.1486807489249349</v>
+        <v>-0.007928310760611191</v>
       </c>
       <c r="F28">
-        <v>0.03951833167450508</v>
+        <v>-0.04766599172730902</v>
       </c>
       <c r="G28">
-        <v>0.0009907452454184819</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009066398320231327</v>
+      </c>
+      <c r="H28">
+        <v>-0.0138443353052073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02158380612384472</v>
+        <v>0.02159399484169384</v>
       </c>
       <c r="C29">
-        <v>-0.01065127301043575</v>
+        <v>0.001275564270838733</v>
       </c>
       <c r="D29">
-        <v>0.006474285379636683</v>
+        <v>-0.006642572805134457</v>
       </c>
       <c r="E29">
-        <v>-0.05318674504050668</v>
+        <v>0.01381754820499024</v>
       </c>
       <c r="F29">
-        <v>0.04289261128220381</v>
+        <v>0.01495126606751891</v>
       </c>
       <c r="G29">
-        <v>-0.05954656183699947</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04104114550365834</v>
+      </c>
+      <c r="H29">
+        <v>-0.0008591988815546809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09205296614444164</v>
+        <v>0.04960147182950322</v>
       </c>
       <c r="C30">
-        <v>-0.06087248947610319</v>
+        <v>-0.005863643278248402</v>
       </c>
       <c r="D30">
-        <v>-0.01611052932369721</v>
+        <v>-0.07027025345283225</v>
       </c>
       <c r="E30">
-        <v>-0.06667521593324148</v>
+        <v>-0.02874666806217714</v>
       </c>
       <c r="F30">
-        <v>0.08961448294727754</v>
+        <v>0.04966803256219639</v>
       </c>
       <c r="G30">
-        <v>-0.06409065332232421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05681521576222642</v>
+      </c>
+      <c r="H30">
+        <v>0.06182005162514378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06294414821059105</v>
+        <v>0.0544340252411168</v>
       </c>
       <c r="C31">
-        <v>-0.02687392734335308</v>
+        <v>0.01436938089320181</v>
       </c>
       <c r="D31">
-        <v>-0.02696253061207797</v>
+        <v>-0.02729146860601943</v>
       </c>
       <c r="E31">
-        <v>-0.004857350680295661</v>
+        <v>-0.004413645505538255</v>
       </c>
       <c r="F31">
-        <v>0.03962424639579541</v>
+        <v>0.01262126637943141</v>
       </c>
       <c r="G31">
-        <v>-0.06780270352517288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01753499854323306</v>
+      </c>
+      <c r="H31">
+        <v>0.01130163996876705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0194881414009698</v>
+        <v>0.01129429225945025</v>
       </c>
       <c r="C32">
-        <v>-0.01807427898926776</v>
+        <v>0.0134713375413011</v>
       </c>
       <c r="D32">
-        <v>-0.01156044562932783</v>
+        <v>-0.003434012007538728</v>
       </c>
       <c r="E32">
-        <v>-0.08111131449878523</v>
+        <v>0.03162360663941739</v>
       </c>
       <c r="F32">
-        <v>0.06219943712461991</v>
+        <v>0.0331875298724414</v>
       </c>
       <c r="G32">
-        <v>-0.05172610511055718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03487284729903875</v>
+      </c>
+      <c r="H32">
+        <v>0.06052354828857594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05023884934044276</v>
+        <v>0.03790548431747076</v>
       </c>
       <c r="C33">
-        <v>-0.01229448356628676</v>
+        <v>0.000717237879387281</v>
       </c>
       <c r="D33">
-        <v>-0.0478345138266756</v>
+        <v>-0.03475064384597048</v>
       </c>
       <c r="E33">
-        <v>-0.03806281301914533</v>
+        <v>-0.02371551435485286</v>
       </c>
       <c r="F33">
-        <v>0.08631153384087063</v>
+        <v>0.002380634777147869</v>
       </c>
       <c r="G33">
-        <v>-0.06486773690383714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04760170443413051</v>
+      </c>
+      <c r="H33">
+        <v>0.04063483670730132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03372007305359302</v>
+        <v>0.02600519568000458</v>
       </c>
       <c r="C34">
-        <v>-0.02142220069501897</v>
+        <v>0.01677910501630821</v>
       </c>
       <c r="D34">
-        <v>-0.01271874813470633</v>
+        <v>-0.03646108304062264</v>
       </c>
       <c r="E34">
-        <v>-0.03169348099499845</v>
+        <v>0.009236658304566504</v>
       </c>
       <c r="F34">
-        <v>0.05743812737979882</v>
+        <v>0.01713416587553101</v>
       </c>
       <c r="G34">
-        <v>-0.01904825772419536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0219672230810339</v>
+      </c>
+      <c r="H34">
+        <v>0.03816511069735565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01532718778230366</v>
+        <v>0.02108612716631685</v>
       </c>
       <c r="C36">
-        <v>-0.004324394452539395</v>
+        <v>-0.003887811784666625</v>
       </c>
       <c r="D36">
-        <v>0.001335296281640692</v>
+        <v>-0.0004244593306307351</v>
       </c>
       <c r="E36">
-        <v>-0.02840617117138546</v>
+        <v>0.006606361643554342</v>
       </c>
       <c r="F36">
-        <v>0.03103842358360398</v>
+        <v>0.003447404743807136</v>
       </c>
       <c r="G36">
-        <v>-0.03886989781502632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0194121495568322</v>
+      </c>
+      <c r="H36">
+        <v>0.008261218627746685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001126316388805702</v>
+        <v>0.02231894455236183</v>
       </c>
       <c r="C38">
-        <v>0.009467416605797169</v>
+        <v>0.01608519167458872</v>
       </c>
       <c r="D38">
-        <v>-0.01334180806567704</v>
+        <v>-0.008527241675590129</v>
       </c>
       <c r="E38">
-        <v>0.01645970488662114</v>
+        <v>-0.001257222990881948</v>
       </c>
       <c r="F38">
-        <v>0.04236941838048843</v>
+        <v>0.008862878222169229</v>
       </c>
       <c r="G38">
-        <v>-0.006642336303319208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01923378925302352</v>
+      </c>
+      <c r="H38">
+        <v>0.03901986010638848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0416897999039235</v>
+        <v>0.01690538030117602</v>
       </c>
       <c r="C39">
-        <v>-0.03816114455802593</v>
+        <v>6.193883848193459e-05</v>
       </c>
       <c r="D39">
-        <v>-0.02565446794256709</v>
+        <v>-0.07627261156184466</v>
       </c>
       <c r="E39">
-        <v>-0.0348964822664555</v>
+        <v>-0.001679093696356653</v>
       </c>
       <c r="F39">
-        <v>0.0662927541720521</v>
+        <v>0.02027534742043038</v>
       </c>
       <c r="G39">
-        <v>-0.03301905956395854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04313311237963235</v>
+      </c>
+      <c r="H39">
+        <v>0.07009304650269459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03760056862407873</v>
+        <v>0.03022499190488379</v>
       </c>
       <c r="C40">
-        <v>-0.06384919343156888</v>
+        <v>0.0002905740953250323</v>
       </c>
       <c r="D40">
-        <v>-0.03613665441743372</v>
+        <v>-0.02093091660968756</v>
       </c>
       <c r="E40">
-        <v>0.01075750982902446</v>
+        <v>-0.02428831173126575</v>
       </c>
       <c r="F40">
-        <v>0.07566329320861273</v>
+        <v>0.02740513352632618</v>
       </c>
       <c r="G40">
-        <v>-0.05418125318152202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02724657754876654</v>
+      </c>
+      <c r="H40">
+        <v>0.06376347662721621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>9.547482594545689e-06</v>
+        <v>0.01176510273177388</v>
       </c>
       <c r="C41">
-        <v>0.00204371036956866</v>
+        <v>-0.0002603008508381336</v>
       </c>
       <c r="D41">
-        <v>-0.007596029918268295</v>
+        <v>0.01249386713613116</v>
       </c>
       <c r="E41">
-        <v>-0.009728335439161618</v>
+        <v>-0.001917736690987746</v>
       </c>
       <c r="F41">
-        <v>0.001382869238594894</v>
+        <v>-0.001745008924004905</v>
       </c>
       <c r="G41">
-        <v>-0.04842413398164845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.002974327338851414</v>
+      </c>
+      <c r="H41">
+        <v>-0.005733549102689873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.365989150302435</v>
+        <v>0.1957377763805512</v>
       </c>
       <c r="C42">
-        <v>0.6585953731689459</v>
+        <v>-0.07734687194719994</v>
       </c>
       <c r="D42">
-        <v>-0.5439418181581906</v>
+        <v>-0.3555671922397635</v>
       </c>
       <c r="E42">
-        <v>0.1608481890643167</v>
+        <v>-0.2348019212661117</v>
       </c>
       <c r="F42">
-        <v>-0.2627366287171867</v>
+        <v>-0.8442019850283239</v>
       </c>
       <c r="G42">
-        <v>-0.07010005819221354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1993959271021712</v>
+      </c>
+      <c r="H42">
+        <v>-0.05113889618040333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00707131340559456</v>
+        <v>0.01204651662724208</v>
       </c>
       <c r="C43">
-        <v>0.006664735792934878</v>
+        <v>-0.001411211086657818</v>
       </c>
       <c r="D43">
-        <v>-0.01651987417637858</v>
+        <v>0.01304851282609901</v>
       </c>
       <c r="E43">
-        <v>-0.0103282643155595</v>
+        <v>-0.006162534357333409</v>
       </c>
       <c r="F43">
-        <v>0.01806519831496853</v>
+        <v>-0.008402979966629844</v>
       </c>
       <c r="G43">
-        <v>-0.04619558056548319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.004991608841517271</v>
+      </c>
+      <c r="H43">
+        <v>0.002298467762147996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0162506641633331</v>
+        <v>0.01265707343420741</v>
       </c>
       <c r="C44">
-        <v>0.006661956124065957</v>
+        <v>0.0007000676818468771</v>
       </c>
       <c r="D44">
-        <v>-0.02045977244731561</v>
+        <v>-0.02459631254063597</v>
       </c>
       <c r="E44">
-        <v>-0.01933940887717878</v>
+        <v>0.004784633536495919</v>
       </c>
       <c r="F44">
-        <v>0.1073891311045436</v>
+        <v>-0.00704489857610741</v>
       </c>
       <c r="G44">
-        <v>-0.08679098697448452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03901707732334789</v>
+      </c>
+      <c r="H44">
+        <v>0.05790742140102428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01933958029503564</v>
+        <v>0.01809935184028966</v>
       </c>
       <c r="C46">
-        <v>-0.01107889236507488</v>
+        <v>-0.003937302939024333</v>
       </c>
       <c r="D46">
-        <v>-0.02346705018203919</v>
+        <v>-0.01437971860693154</v>
       </c>
       <c r="E46">
-        <v>-0.04650761086104393</v>
+        <v>0.001433127908040396</v>
       </c>
       <c r="F46">
-        <v>0.05613037469980822</v>
+        <v>0.01402107978126649</v>
       </c>
       <c r="G46">
-        <v>-0.06829551038910905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04775201092647807</v>
+      </c>
+      <c r="H46">
+        <v>0.01188745707693442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0954080229186523</v>
+        <v>0.07449454283675519</v>
       </c>
       <c r="C47">
-        <v>-0.03317008820763594</v>
+        <v>0.02949701106932229</v>
       </c>
       <c r="D47">
-        <v>-0.009887977171371869</v>
+        <v>-0.04645006341304486</v>
       </c>
       <c r="E47">
-        <v>-0.02437628501407125</v>
+        <v>0.0006803610735104283</v>
       </c>
       <c r="F47">
-        <v>0.01450253021934693</v>
+        <v>0.02350565387479246</v>
       </c>
       <c r="G47">
-        <v>-0.09103370359752393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007872378819727421</v>
+      </c>
+      <c r="H47">
+        <v>-0.020523621778417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01752126785508476</v>
+        <v>0.02233774481390974</v>
       </c>
       <c r="C48">
-        <v>-0.006006435105406645</v>
+        <v>0.006620266303311534</v>
       </c>
       <c r="D48">
-        <v>-0.01475635693584885</v>
+        <v>-0.008090984880925932</v>
       </c>
       <c r="E48">
-        <v>-0.02609946186590622</v>
+        <v>0.001632391979960844</v>
       </c>
       <c r="F48">
-        <v>0.04920738235709508</v>
+        <v>0.00819055704049129</v>
       </c>
       <c r="G48">
-        <v>-0.02734458808438349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02585028421202634</v>
+      </c>
+      <c r="H48">
+        <v>0.01860537621552981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08974346351656552</v>
+        <v>0.07294711579043435</v>
       </c>
       <c r="C50">
-        <v>-0.02904567039947824</v>
+        <v>0.02661353210070902</v>
       </c>
       <c r="D50">
-        <v>-0.02133161762581791</v>
+        <v>-0.04414551358293847</v>
       </c>
       <c r="E50">
-        <v>-0.03286479325596374</v>
+        <v>0.01943639755198866</v>
       </c>
       <c r="F50">
-        <v>0.05058168383778141</v>
+        <v>0.01620406349711408</v>
       </c>
       <c r="G50">
-        <v>-0.04561744299759554</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01395029356802906</v>
+      </c>
+      <c r="H50">
+        <v>-0.0002168457107698228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01686771411233665</v>
+        <v>0.0182881853745371</v>
       </c>
       <c r="C51">
-        <v>0.01275741348090997</v>
+        <v>-0.001638105643337138</v>
       </c>
       <c r="D51">
-        <v>-0.01242789688928285</v>
+        <v>0.004601206889983252</v>
       </c>
       <c r="E51">
-        <v>0.00926494217627954</v>
+        <v>0.0003431370413124022</v>
       </c>
       <c r="F51">
-        <v>0.1123710389974775</v>
+        <v>-0.01328808579207</v>
       </c>
       <c r="G51">
-        <v>-0.05973456998921108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0487720635868476</v>
+      </c>
+      <c r="H51">
+        <v>0.05059583862823568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1047673777416223</v>
+        <v>0.09232148429795232</v>
       </c>
       <c r="C53">
-        <v>-0.05210729348807696</v>
+        <v>0.03643418050981557</v>
       </c>
       <c r="D53">
-        <v>-0.01585387009416376</v>
+        <v>-0.08203990066714441</v>
       </c>
       <c r="E53">
-        <v>-0.04348386028551083</v>
+        <v>0.007926282430541616</v>
       </c>
       <c r="F53">
-        <v>-0.04687515225711405</v>
+        <v>0.05127688465339821</v>
       </c>
       <c r="G53">
-        <v>-0.0228486935922687</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04218679494861693</v>
+      </c>
+      <c r="H53">
+        <v>-0.04201417052969197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02071249107803594</v>
+        <v>0.02620801275744871</v>
       </c>
       <c r="C54">
-        <v>-0.01388807794906784</v>
+        <v>0.01145002130319142</v>
       </c>
       <c r="D54">
-        <v>0.00788779010038685</v>
+        <v>0.01139374927480236</v>
       </c>
       <c r="E54">
-        <v>-0.03728561357772493</v>
+        <v>0.007319887893767803</v>
       </c>
       <c r="F54">
-        <v>0.04550870655872792</v>
+        <v>0.005783858106587516</v>
       </c>
       <c r="G54">
-        <v>-0.07319275011726645</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03999249850580137</v>
+      </c>
+      <c r="H54">
+        <v>-0.00314830397258287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1042183122743717</v>
+        <v>0.07612535375396402</v>
       </c>
       <c r="C55">
-        <v>-0.03018215385463533</v>
+        <v>0.03128383410755418</v>
       </c>
       <c r="D55">
-        <v>0.005536519531238044</v>
+        <v>-0.07856419432462647</v>
       </c>
       <c r="E55">
-        <v>-0.06601302516859621</v>
+        <v>0.01529435562859052</v>
       </c>
       <c r="F55">
-        <v>-0.03501750894700786</v>
+        <v>0.04095472838959632</v>
       </c>
       <c r="G55">
-        <v>-0.06936730623768007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01887572932252656</v>
+      </c>
+      <c r="H55">
+        <v>-0.05167594326704004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1441316825745729</v>
+        <v>0.1246643271705695</v>
       </c>
       <c r="C56">
-        <v>-0.09096482677836536</v>
+        <v>0.05521674683271473</v>
       </c>
       <c r="D56">
-        <v>0.02102131646463764</v>
+        <v>-0.1042376231969037</v>
       </c>
       <c r="E56">
-        <v>-0.05851080832373973</v>
+        <v>0.01248073108220359</v>
       </c>
       <c r="F56">
-        <v>-0.09772242409235418</v>
+        <v>0.081999198054329</v>
       </c>
       <c r="G56">
-        <v>0.03835513208606449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07507862123107983</v>
+      </c>
+      <c r="H56">
+        <v>-0.05100474543887732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04871854239517569</v>
+        <v>0.03885790906059355</v>
       </c>
       <c r="C57">
-        <v>-0.001457099813446964</v>
+        <v>-0.01033463280017883</v>
       </c>
       <c r="D57">
-        <v>-0.01294319782726748</v>
+        <v>-0.03189312710259769</v>
       </c>
       <c r="E57">
-        <v>0.01540231886706346</v>
+        <v>-0.004628250825096987</v>
       </c>
       <c r="F57">
-        <v>0.07895473274676554</v>
+        <v>0.01572010752964953</v>
       </c>
       <c r="G57">
-        <v>-0.0640963977562706</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05909135507745508</v>
+      </c>
+      <c r="H57">
+        <v>0.04143089255608579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2078666939409792</v>
+        <v>0.1447104048143446</v>
       </c>
       <c r="C58">
-        <v>-0.06530644891129676</v>
+        <v>0.04085130302534741</v>
       </c>
       <c r="D58">
-        <v>-0.1299927698474226</v>
+        <v>-0.1595428882832242</v>
       </c>
       <c r="E58">
-        <v>-0.1194169515616745</v>
+        <v>-0.1690672589711196</v>
       </c>
       <c r="F58">
-        <v>0.3352017628558749</v>
+        <v>-0.03454727662277962</v>
       </c>
       <c r="G58">
-        <v>-0.1515408611829508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8302614551897846</v>
+      </c>
+      <c r="H58">
+        <v>-0.3677339212048348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0474982107032654</v>
+        <v>0.1599338494098816</v>
       </c>
       <c r="C59">
-        <v>0.001574309958730609</v>
+        <v>0.03890825458326423</v>
       </c>
       <c r="D59">
-        <v>0.1017542139307968</v>
+        <v>0.218310575939665</v>
       </c>
       <c r="E59">
-        <v>0.1408787529913746</v>
+        <v>-0.02557685345878698</v>
       </c>
       <c r="F59">
-        <v>0.06153049688644437</v>
+        <v>-0.02556180083751504</v>
       </c>
       <c r="G59">
-        <v>0.01999135235947082</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01023147849111811</v>
+      </c>
+      <c r="H59">
+        <v>0.01763454435330198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1662126282250702</v>
+        <v>0.1751510408093289</v>
       </c>
       <c r="C60">
-        <v>-0.04104553638705329</v>
+        <v>0.03634480363370118</v>
       </c>
       <c r="D60">
-        <v>-0.0613872901138426</v>
+        <v>-0.02097308336849784</v>
       </c>
       <c r="E60">
-        <v>0.05586539498820663</v>
+        <v>-0.04715886361961284</v>
       </c>
       <c r="F60">
-        <v>0.1868147553112396</v>
+        <v>0.0357590165004598</v>
       </c>
       <c r="G60">
-        <v>0.3024470652830479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04046392998964647</v>
+      </c>
+      <c r="H60">
+        <v>0.3968462056040897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02396340793990814</v>
+        <v>0.02056505431526552</v>
       </c>
       <c r="C61">
-        <v>-0.007621691696274163</v>
+        <v>0.005857376609991313</v>
       </c>
       <c r="D61">
-        <v>-0.01293708721644636</v>
+        <v>-0.04258807502215469</v>
       </c>
       <c r="E61">
-        <v>-0.01923120043557028</v>
+        <v>0.005216345529540543</v>
       </c>
       <c r="F61">
-        <v>0.03891333466348322</v>
+        <v>0.01704668974911548</v>
       </c>
       <c r="G61">
-        <v>-0.01843998377175214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02621902744827833</v>
+      </c>
+      <c r="H61">
+        <v>0.05047202148938795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01501122542629165</v>
+        <v>0.01212812556769358</v>
       </c>
       <c r="C63">
-        <v>-0.0117113307672237</v>
+        <v>-0.002550247037832925</v>
       </c>
       <c r="D63">
-        <v>-0.01606365294391865</v>
+        <v>-0.01542238648256863</v>
       </c>
       <c r="E63">
-        <v>-0.04268103378072471</v>
+        <v>0.005771770077095887</v>
       </c>
       <c r="F63">
-        <v>0.01341776124680263</v>
+        <v>0.01483014927864953</v>
       </c>
       <c r="G63">
-        <v>-0.04655949997038369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01742526773299348</v>
+      </c>
+      <c r="H63">
+        <v>0.003638984933597813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03547257220980775</v>
+        <v>0.03864909408441801</v>
       </c>
       <c r="C64">
-        <v>-0.004843075340833959</v>
+        <v>0.009068086878229506</v>
       </c>
       <c r="D64">
-        <v>0.01161472114155411</v>
+        <v>-0.04052677396888028</v>
       </c>
       <c r="E64">
-        <v>-0.05736519616665723</v>
+        <v>0.01126369189247953</v>
       </c>
       <c r="F64">
-        <v>0.02081712734509372</v>
+        <v>0.004732037741537912</v>
       </c>
       <c r="G64">
-        <v>-0.06410125065174951</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.00686293713332176</v>
+      </c>
+      <c r="H64">
+        <v>0.03748820405543433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02056109902699484</v>
+        <v>0.02775566678588467</v>
       </c>
       <c r="C65">
-        <v>-0.01369739374711247</v>
+        <v>-0.005273292938897307</v>
       </c>
       <c r="D65">
-        <v>-0.01439717166542709</v>
+        <v>-0.06053324443624347</v>
       </c>
       <c r="E65">
-        <v>-0.01993547559879104</v>
+        <v>0.01055283716426124</v>
       </c>
       <c r="F65">
-        <v>0.01965743244614124</v>
+        <v>0.0333570302300634</v>
       </c>
       <c r="G65">
-        <v>0.01037559453921794</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004135591789732639</v>
+      </c>
+      <c r="H65">
+        <v>0.06166215132894352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04424073356820316</v>
+        <v>0.02299177900791861</v>
       </c>
       <c r="C66">
-        <v>-0.03895843734297477</v>
+        <v>0.00459544044776714</v>
       </c>
       <c r="D66">
-        <v>-0.02873216681138527</v>
+        <v>-0.08839067188943657</v>
       </c>
       <c r="E66">
-        <v>-0.03361093769310841</v>
+        <v>-0.00283387050113833</v>
       </c>
       <c r="F66">
-        <v>0.06041639181085314</v>
+        <v>0.03679238576602067</v>
       </c>
       <c r="G66">
-        <v>-0.02504008135420305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03624272547597768</v>
+      </c>
+      <c r="H66">
+        <v>0.0730607466363653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01433032411816575</v>
+        <v>0.04318118029795222</v>
       </c>
       <c r="C67">
-        <v>0.003113979445314171</v>
+        <v>0.0195556060390492</v>
       </c>
       <c r="D67">
-        <v>-0.01060642257848805</v>
+        <v>-0.003584967113599594</v>
       </c>
       <c r="E67">
-        <v>0.03502040451703756</v>
+        <v>-0.004953853112719891</v>
       </c>
       <c r="F67">
-        <v>0.02884026262840808</v>
+        <v>0.01549311564225741</v>
       </c>
       <c r="G67">
-        <v>0.005231005105481816</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.004072363774359723</v>
+      </c>
+      <c r="H67">
+        <v>0.03762811855073446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06302987874320867</v>
+        <v>0.1618576648190521</v>
       </c>
       <c r="C68">
-        <v>0.01732219641911192</v>
+        <v>0.01905244909516896</v>
       </c>
       <c r="D68">
-        <v>0.1369690879278141</v>
+        <v>0.219284411521046</v>
       </c>
       <c r="E68">
-        <v>0.1427121292475294</v>
+        <v>-0.02023849941796911</v>
       </c>
       <c r="F68">
-        <v>0.04604277986858554</v>
+        <v>-0.04740024525922289</v>
       </c>
       <c r="G68">
-        <v>0.05269319215570084</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02079064033179149</v>
+      </c>
+      <c r="H68">
+        <v>-0.03857005707997274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07073930047385767</v>
+        <v>0.05826380783052725</v>
       </c>
       <c r="C69">
-        <v>-0.03777512066262229</v>
+        <v>0.0281930751264764</v>
       </c>
       <c r="D69">
-        <v>-0.00692886362220207</v>
+        <v>-0.0408264291509557</v>
       </c>
       <c r="E69">
-        <v>-0.003293748021340731</v>
+        <v>-0.00108471074335309</v>
       </c>
       <c r="F69">
-        <v>0.01294550408385399</v>
+        <v>0.03166866021987642</v>
       </c>
       <c r="G69">
-        <v>-0.08659865279169229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01427062388424306</v>
+      </c>
+      <c r="H69">
+        <v>0.003334576504050533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07123775722135441</v>
+        <v>0.1507930347661589</v>
       </c>
       <c r="C71">
-        <v>0.03478011043965132</v>
+        <v>0.02598730363799093</v>
       </c>
       <c r="D71">
-        <v>0.1176364382467179</v>
+        <v>0.1952439001895119</v>
       </c>
       <c r="E71">
-        <v>0.1974150264120136</v>
+        <v>-0.02609314481531459</v>
       </c>
       <c r="F71">
-        <v>0.05395466441153057</v>
+        <v>-0.0570462598500381</v>
       </c>
       <c r="G71">
-        <v>0.004995474966440107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0190492688880394</v>
+      </c>
+      <c r="H71">
+        <v>-0.0303376891660084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1167389623275521</v>
+        <v>0.08049877175856342</v>
       </c>
       <c r="C72">
-        <v>-0.08783921246011088</v>
+        <v>0.03840230368306748</v>
       </c>
       <c r="D72">
-        <v>0.005278602968821949</v>
+        <v>-0.0780306460976839</v>
       </c>
       <c r="E72">
-        <v>-0.01791251165583865</v>
+        <v>-0.007875164066103047</v>
       </c>
       <c r="F72">
-        <v>0.1271173378043622</v>
+        <v>0.07835801297852946</v>
       </c>
       <c r="G72">
-        <v>0.06759932333902256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05775748107435594</v>
+      </c>
+      <c r="H72">
+        <v>0.1697522150299676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2499264599163327</v>
+        <v>0.2350668878473043</v>
       </c>
       <c r="C73">
-        <v>-0.03577442733589964</v>
+        <v>0.04531060834902347</v>
       </c>
       <c r="D73">
-        <v>-0.0633234501894806</v>
+        <v>-0.06762685429276423</v>
       </c>
       <c r="E73">
-        <v>0.1564611820755791</v>
+        <v>-0.07906192620898807</v>
       </c>
       <c r="F73">
-        <v>0.3097187969264238</v>
+        <v>0.03178923929684677</v>
       </c>
       <c r="G73">
-        <v>0.443686002880625</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05918020768850473</v>
+      </c>
+      <c r="H73">
+        <v>0.5125225275742389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1405887407473547</v>
+        <v>0.1160327199965167</v>
       </c>
       <c r="C74">
-        <v>-0.04445240671035051</v>
+        <v>0.05109252148734508</v>
       </c>
       <c r="D74">
-        <v>0.0150187086674923</v>
+        <v>-0.1052299428855531</v>
       </c>
       <c r="E74">
-        <v>-0.04132918340383557</v>
+        <v>0.009930096395570779</v>
       </c>
       <c r="F74">
-        <v>-0.07035443401607576</v>
+        <v>0.06190005273230386</v>
       </c>
       <c r="G74">
-        <v>0.03216987561599641</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05704791286864801</v>
+      </c>
+      <c r="H74">
+        <v>-0.0316717582110552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2316370800861691</v>
+        <v>0.2245725490941595</v>
       </c>
       <c r="C75">
-        <v>-0.1552985106350427</v>
+        <v>0.1006053439923599</v>
       </c>
       <c r="D75">
-        <v>0.02623936410852558</v>
+        <v>-0.167806459465234</v>
       </c>
       <c r="E75">
-        <v>-0.06881370841332199</v>
+        <v>-0.002249531997067982</v>
       </c>
       <c r="F75">
-        <v>-0.1255496455561965</v>
+        <v>0.1486878152972494</v>
       </c>
       <c r="G75">
-        <v>0.003595125321831585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1266808091909237</v>
+      </c>
+      <c r="H75">
+        <v>-0.1171939877981621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2800657305784863</v>
+        <v>0.1990987326148268</v>
       </c>
       <c r="C76">
-        <v>-0.145005190003201</v>
+        <v>0.09400318467676309</v>
       </c>
       <c r="D76">
-        <v>0.09751926029778477</v>
+        <v>-0.1597779035570742</v>
       </c>
       <c r="E76">
-        <v>-0.09194487559837691</v>
+        <v>0.04901953181594457</v>
       </c>
       <c r="F76">
-        <v>-0.1662442693499045</v>
+        <v>0.1434007611766097</v>
       </c>
       <c r="G76">
-        <v>-0.005319089467445807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1223132563399286</v>
+      </c>
+      <c r="H76">
+        <v>-0.1260628569109248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1371736801112705</v>
+        <v>0.06758650225078076</v>
       </c>
       <c r="C77">
-        <v>0.03190669754179069</v>
+        <v>0.007080023300442395</v>
       </c>
       <c r="D77">
-        <v>-0.08277969813953472</v>
+        <v>-0.06280587306725267</v>
       </c>
       <c r="E77">
-        <v>-0.05559463535958043</v>
+        <v>-0.0157155459362388</v>
       </c>
       <c r="F77">
-        <v>0.1710308184071568</v>
+        <v>-0.03730329720521821</v>
       </c>
       <c r="G77">
-        <v>-0.1951451830053188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09999072911918716</v>
+      </c>
+      <c r="H77">
+        <v>0.00332859450528181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0668511511726214</v>
+        <v>0.03831346641568182</v>
       </c>
       <c r="C78">
-        <v>-0.02585006058828654</v>
+        <v>0.009626660858712405</v>
       </c>
       <c r="D78">
-        <v>-0.02962261064116985</v>
+        <v>-0.04950305457775809</v>
       </c>
       <c r="E78">
-        <v>-0.08863515530645098</v>
+        <v>0.007974877820583223</v>
       </c>
       <c r="F78">
-        <v>0.07579392179568746</v>
+        <v>0.02059310350687581</v>
       </c>
       <c r="G78">
-        <v>-0.02923726716357015</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05864555784639094</v>
+      </c>
+      <c r="H78">
+        <v>0.06846152804984947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1374772926993184</v>
+        <v>0.1387264675410781</v>
       </c>
       <c r="C80">
-        <v>0.5809566687476337</v>
+        <v>0.03691740986683646</v>
       </c>
       <c r="D80">
-        <v>0.568068240694246</v>
+        <v>-0.04686340898312242</v>
       </c>
       <c r="E80">
-        <v>-0.5224585353986153</v>
+        <v>0.9367438033734705</v>
       </c>
       <c r="F80">
-        <v>0.08362967854192964</v>
+        <v>-0.2491861199805728</v>
       </c>
       <c r="G80">
-        <v>0.1106839574085693</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1228454397283212</v>
+      </c>
+      <c r="H80">
+        <v>0.01001845284037476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1722745216541009</v>
+        <v>0.1470671925834335</v>
       </c>
       <c r="C81">
-        <v>-0.1075612723065208</v>
+        <v>0.06495263445974395</v>
       </c>
       <c r="D81">
-        <v>0.04678405519177491</v>
+        <v>-0.1025893251489078</v>
       </c>
       <c r="E81">
-        <v>-0.05156164281971028</v>
+        <v>0.01788830548754393</v>
       </c>
       <c r="F81">
-        <v>-0.1358716975413199</v>
+        <v>0.08987314534399353</v>
       </c>
       <c r="G81">
-        <v>0.02297695299713151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08208554199443975</v>
+      </c>
+      <c r="H81">
+        <v>-0.08306234260520115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04995819790197815</v>
+        <v>0.03253199918591324</v>
       </c>
       <c r="C83">
-        <v>-0.000550573036545526</v>
+        <v>0.005640422722017513</v>
       </c>
       <c r="D83">
-        <v>-0.03732839794624411</v>
+        <v>-0.02134770816244913</v>
       </c>
       <c r="E83">
-        <v>-0.01233180663643827</v>
+        <v>-0.005561065667539582</v>
       </c>
       <c r="F83">
-        <v>0.05459858248982876</v>
+        <v>0.002348565667256242</v>
       </c>
       <c r="G83">
-        <v>-0.04661464876265041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04070201653695344</v>
+      </c>
+      <c r="H83">
+        <v>0.04075651148016544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2540606365558516</v>
+        <v>0.2136837831660424</v>
       </c>
       <c r="C85">
-        <v>-0.1381157694400139</v>
+        <v>0.08402385482637803</v>
       </c>
       <c r="D85">
-        <v>0.04717591168459821</v>
+        <v>-0.1690609823598736</v>
       </c>
       <c r="E85">
-        <v>-0.07758572164907493</v>
+        <v>0.004567632126069161</v>
       </c>
       <c r="F85">
-        <v>-0.1254042275219021</v>
+        <v>0.1348389446001165</v>
       </c>
       <c r="G85">
-        <v>-0.03931761499294131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.137710746645176</v>
+      </c>
+      <c r="H85">
+        <v>-0.08676836169390229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004235685734413746</v>
+        <v>0.02028626236988451</v>
       </c>
       <c r="C86">
-        <v>0.006320688103448125</v>
+        <v>-0.001026505203304557</v>
       </c>
       <c r="D86">
-        <v>-0.02028044316905501</v>
+        <v>-0.004782427869178162</v>
       </c>
       <c r="E86">
-        <v>-0.04820997782691907</v>
+        <v>-0.009042653751229476</v>
       </c>
       <c r="F86">
-        <v>0.06327199779875659</v>
+        <v>-0.02091008320830235</v>
       </c>
       <c r="G86">
-        <v>-0.01933419869051497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06033868994199573</v>
+      </c>
+      <c r="H86">
+        <v>0.07567385919140866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03909947873479603</v>
+        <v>0.02647741006482932</v>
       </c>
       <c r="C87">
-        <v>0.00683258227414918</v>
+        <v>0.00169592319019627</v>
       </c>
       <c r="D87">
-        <v>-0.001176419041856501</v>
+        <v>-0.03392881137455003</v>
       </c>
       <c r="E87">
-        <v>-0.03617230860597614</v>
+        <v>0.008671954175636654</v>
       </c>
       <c r="F87">
-        <v>0.109419447708516</v>
+        <v>0.006497824689375046</v>
       </c>
       <c r="G87">
-        <v>-0.0365068049448741</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07753747317216464</v>
+      </c>
+      <c r="H87">
+        <v>0.07277994170885911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009057271303157814</v>
+        <v>0.03519816973917688</v>
       </c>
       <c r="C88">
-        <v>-0.003368472868272077</v>
+        <v>-0.0118195062855358</v>
       </c>
       <c r="D88">
-        <v>0.01616172863111124</v>
+        <v>-0.004591888020726248</v>
       </c>
       <c r="E88">
-        <v>0.001371553546283318</v>
+        <v>0.008551896966452106</v>
       </c>
       <c r="F88">
-        <v>0.001887896584824006</v>
+        <v>0.007091283799597372</v>
       </c>
       <c r="G88">
-        <v>-0.05460209176404945</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003742650116136687</v>
+      </c>
+      <c r="H88">
+        <v>0.01565560623692664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08782375485376263</v>
+        <v>0.2562193734933896</v>
       </c>
       <c r="C89">
-        <v>0.04935391877745205</v>
+        <v>0.0414293214757309</v>
       </c>
       <c r="D89">
-        <v>0.1666472474857703</v>
+        <v>0.3454382766860742</v>
       </c>
       <c r="E89">
-        <v>0.263952227221451</v>
+        <v>-0.04149633226728536</v>
       </c>
       <c r="F89">
-        <v>0.09959672458129003</v>
+        <v>-0.05925976709977077</v>
       </c>
       <c r="G89">
-        <v>-0.03964703013642837</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02370899136479246</v>
+      </c>
+      <c r="H89">
+        <v>-0.01109093742712932</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07848868620647172</v>
+        <v>0.2061815218950266</v>
       </c>
       <c r="C90">
-        <v>0.07367919338925799</v>
+        <v>0.03395772787618995</v>
       </c>
       <c r="D90">
-        <v>0.2191697369443422</v>
+        <v>0.3035792655287171</v>
       </c>
       <c r="E90">
-        <v>0.2658953920229546</v>
+        <v>-0.0318240873903972</v>
       </c>
       <c r="F90">
-        <v>0.05610954803813787</v>
+        <v>-0.07473196335861738</v>
       </c>
       <c r="G90">
-        <v>-0.03476590350958769</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03100564281698064</v>
+      </c>
+      <c r="H90">
+        <v>-0.06846477149343214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3105311352456168</v>
+        <v>0.2312090757123574</v>
       </c>
       <c r="C91">
-        <v>-0.1525169807016645</v>
+        <v>0.1015123326679387</v>
       </c>
       <c r="D91">
-        <v>0.03779716210124508</v>
+        <v>-0.1588697136928736</v>
       </c>
       <c r="E91">
-        <v>-0.05880311333516908</v>
+        <v>0.00306312004145673</v>
       </c>
       <c r="F91">
-        <v>-0.2384047352109636</v>
+        <v>0.1412624528142445</v>
       </c>
       <c r="G91">
-        <v>0.03347057920579859</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1480581531836151</v>
+      </c>
+      <c r="H91">
+        <v>-0.163183735424858</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1697881016036466</v>
+        <v>0.2518888851220734</v>
       </c>
       <c r="C92">
-        <v>0.01585811588451598</v>
+        <v>0.09644534571751705</v>
       </c>
       <c r="D92">
-        <v>0.3016995360754845</v>
+        <v>0.2313902941551298</v>
       </c>
       <c r="E92">
-        <v>0.3481184170199182</v>
+        <v>-0.01797632133368991</v>
       </c>
       <c r="F92">
-        <v>-0.0820680271090382</v>
+        <v>-0.02622814915900122</v>
       </c>
       <c r="G92">
-        <v>-0.5052992100711918</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.008235488141937683</v>
+      </c>
+      <c r="H92">
+        <v>-0.1506757519544147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08209180934042036</v>
+        <v>0.2302578660832249</v>
       </c>
       <c r="C93">
-        <v>0.07851102220676742</v>
+        <v>0.0458368907181174</v>
       </c>
       <c r="D93">
-        <v>0.2471885498511229</v>
+        <v>0.3274415750003476</v>
       </c>
       <c r="E93">
-        <v>0.3863258651099168</v>
+        <v>-0.0570644365181225</v>
       </c>
       <c r="F93">
-        <v>0.02047329754667636</v>
+        <v>-0.08488604301751008</v>
       </c>
       <c r="G93">
-        <v>0.04627381346798005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02944918982438733</v>
+      </c>
+      <c r="H93">
+        <v>-0.01902591263209486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.300593905405795</v>
+        <v>0.2551456404676766</v>
       </c>
       <c r="C94">
-        <v>-0.2213775822400967</v>
+        <v>0.09243328799957269</v>
       </c>
       <c r="D94">
-        <v>0.08325658299048351</v>
+        <v>-0.1589933169272189</v>
       </c>
       <c r="E94">
-        <v>-0.07260008046012451</v>
+        <v>-0.004934133796816829</v>
       </c>
       <c r="F94">
-        <v>-0.2088317678063557</v>
+        <v>0.1916927440010735</v>
       </c>
       <c r="G94">
-        <v>0.06813844211267188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1356658470440461</v>
+      </c>
+      <c r="H94">
+        <v>-0.1819929135742126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06732487084325703</v>
+        <v>0.05173326063581367</v>
       </c>
       <c r="C95">
-        <v>-0.03072638179939186</v>
+        <v>0.02793496947593339</v>
       </c>
       <c r="D95">
-        <v>-0.09606390778629621</v>
+        <v>-0.08506804003817438</v>
       </c>
       <c r="E95">
-        <v>-0.06506853379506422</v>
+        <v>-0.08073651663913224</v>
       </c>
       <c r="F95">
-        <v>0.006943639886985547</v>
+        <v>0.005738704141445629</v>
       </c>
       <c r="G95">
-        <v>-0.1483568230232551</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02928167606020941</v>
+      </c>
+      <c r="H95">
+        <v>0.04315750830102791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.187633259771555</v>
+        <v>0.1788049143639172</v>
       </c>
       <c r="C98">
-        <v>0.005489292554964005</v>
+        <v>0.06701920250516372</v>
       </c>
       <c r="D98">
-        <v>-0.03009381486456269</v>
+        <v>-0.04550286779658971</v>
       </c>
       <c r="E98">
-        <v>0.09827453547052833</v>
+        <v>-0.04585330727464821</v>
       </c>
       <c r="F98">
-        <v>0.1759057082577176</v>
+        <v>0.004949464381026441</v>
       </c>
       <c r="G98">
-        <v>0.3632053130318694</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08060608827685942</v>
+      </c>
+      <c r="H98">
+        <v>0.3770437586355965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006875737335404989</v>
+        <v>0.01486880143671421</v>
       </c>
       <c r="C101">
-        <v>-0.02346489624219761</v>
+        <v>-0.0007953045030662534</v>
       </c>
       <c r="D101">
-        <v>-0.02115831298886236</v>
+        <v>-0.007832400767101302</v>
       </c>
       <c r="E101">
-        <v>-0.09934458337606136</v>
+        <v>0.0057768766732081</v>
       </c>
       <c r="F101">
-        <v>0.1462258201313381</v>
+        <v>0.01707125419460857</v>
       </c>
       <c r="G101">
-        <v>-0.1810252343348623</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1090869483372538</v>
+      </c>
+      <c r="H101">
+        <v>-0.03004533771055429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1085917791342163</v>
+        <v>0.1032819903116618</v>
       </c>
       <c r="C102">
-        <v>-0.06877086660639987</v>
+        <v>0.03334074688819657</v>
       </c>
       <c r="D102">
-        <v>-0.001915381017566111</v>
+        <v>-0.08421284971403133</v>
       </c>
       <c r="E102">
-        <v>-0.05564638526430389</v>
+        <v>0.005670429156260808</v>
       </c>
       <c r="F102">
-        <v>-0.1146828104312325</v>
+        <v>0.06931556841147656</v>
       </c>
       <c r="G102">
-        <v>-0.001189569115196247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07669626555194484</v>
+      </c>
+      <c r="H102">
+        <v>-0.06710198040724935</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03423881209942516</v>
+        <v>0.01935564521327044</v>
       </c>
       <c r="C103">
-        <v>-0.01741331981199301</v>
+        <v>0.007237492440281279</v>
       </c>
       <c r="D103">
-        <v>0.0111739609980785</v>
+        <v>-0.01719855305717252</v>
       </c>
       <c r="E103">
-        <v>-0.009153644797439922</v>
+        <v>0.011645828201615</v>
       </c>
       <c r="F103">
-        <v>0.005083827923745518</v>
+        <v>0.01321219747507039</v>
       </c>
       <c r="G103">
-        <v>-0.02380806231218107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0002080727374528185</v>
+      </c>
+      <c r="H103">
+        <v>-0.00741958863008738</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2639366993582224</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.947592519461688</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01157987622550902</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03617893014589497</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.144083897565275</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01331089715121981</v>
+      </c>
+      <c r="H104">
+        <v>-0.03825581961237427</v>
       </c>
     </row>
   </sheetData>
